--- a/document/excel_upload_자료/TBL_EXP_FIN_ANAL_BASIS01.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_FIN_ANAL_BASIS01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B930BDFC-F740-445E-AFA2-1464B5A90F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE89AB16-3ABF-44A1-8D5F-B65CD0D63D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,29 +81,67 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>TBL_EXP_FIN_ANAL_BASIS01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자본금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발행주식합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상환전환우선주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주의 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25FC</t>
+  </si>
+  <si>
     <t>BUYER_ID</t>
-  </si>
-  <si>
-    <t>TBL_EXP_FIN_ANAL_BASIS01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CAPITAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>STOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ORDINARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PREFERRED_STOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SANGWHAN_CONV_PRE_STOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ONE_STOCK_PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -308,20 +346,20 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -675,13 +713,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -704,66 +742,83 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>17</v>
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>300000000</v>
+      </c>
+      <c r="C6">
+        <v>60000</v>
+      </c>
+      <c r="D6">
+        <v>60000</v>
+      </c>
+      <c r="G6">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
